--- a/published/list of documents.xlsx
+++ b/published/list of documents.xlsx
@@ -2,22 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\erroronline1\code\erroronline.one\column3\aqms\published\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\code\erroronline.one\column3\aqms\published\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15398" windowHeight="5483"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22998" windowHeight="4200"/>
   </bookViews>
   <sheets>
-    <sheet name="DocumentList" sheetId="1" r:id="rId1"/>
-    <sheet name="Checkpoints" sheetId="2" r:id="rId2"/>
-    <sheet name="DocumentBundles" sheetId="3" r:id="rId3"/>
+    <sheet name="DocumentList" sheetId="2" r:id="rId1"/>
+    <sheet name="Checkpoints" sheetId="3" r:id="rId2"/>
+    <sheet name="DocumentBundles" sheetId="4" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="documents">DocumentList!$B$3:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DocumentList!$A$2:$K$2</definedName>
+    <definedName name="documents">DocumentList!$B$3:$B$11</definedName>
     <definedName name="Norm">Checkpoints!$A$3:$A$9</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
   <si>
     <t>if you add columns make sure to edit the field format. there is a dropdown so set up the field format to list and enable "=Norm"</t>
   </si>
@@ -41,7 +43,7 @@
     <t>VERSION</t>
   </si>
   <si>
-    <t>PAGES</t>
+    <t>FORMAT</t>
   </si>
   <si>
     <t>ALTERNATIVE SEARCH TERMS</t>
@@ -56,6 +58,9 @@
     <t>V1.20190615</t>
   </si>
   <si>
+    <t>PDF</t>
+  </si>
+  <si>
     <t>foo</t>
   </si>
   <si>
@@ -104,6 +109,15 @@
     <t>boole, boule, buhl, cruel, drool, dual, fool, fuel, ghoul, jewel, joule, mule, pool, rule, school, spool, stool, thule, tool, tuille, yule</t>
   </si>
   <si>
+    <t>Interactive dynamic DOCM</t>
+  </si>
+  <si>
+    <t>V1.20210709</t>
+  </si>
+  <si>
+    <t>DOCM</t>
+  </si>
+  <si>
     <t>Checkpoints</t>
   </si>
   <si>
@@ -158,35 +172,38 @@
     <t>Package II Category I 2</t>
   </si>
   <si>
-    <t>E:\Quality Management\published\Another Process Instruction .pdf</t>
-  </si>
-  <si>
-    <t>E:\Quality Management\published\Another Sample Form.pdf</t>
-  </si>
-  <si>
-    <t>E:\Quality Management\published\Attendance List.pdf</t>
-  </si>
-  <si>
-    <t>E:\Quality Management\published\Having Several Dozen Documents Making This System Plausible.pdf</t>
-  </si>
-  <si>
-    <t>E:\Quality Management\published\Sample Form.pdf</t>
-  </si>
-  <si>
-    <t>E:\Quality Management\published\Protocol.pdf</t>
-  </si>
-  <si>
-    <t>E:\Quality Management\published\Process Instruction.pdf</t>
-  </si>
-  <si>
-    <t>E:\Quality Management\published\Find This File Searching For Something That Rhymes With COOL.pdf</t>
+    <t>E:/Quality Management/published/Another Process Instruction .pdf</t>
+  </si>
+  <si>
+    <t>E:/Quality Management/published/Another Sample Form.pdf</t>
+  </si>
+  <si>
+    <t>E:/Quality Management/published/Attendance List.pdf</t>
+  </si>
+  <si>
+    <t>E:/Quality Management/published/Having Several Dozen Documents Making This System Plausible.pdf</t>
+  </si>
+  <si>
+    <t>E:/Quality Management/published/Sample Form.pdf</t>
+  </si>
+  <si>
+    <t>E:/Quality Management/published/Protocol.pdf</t>
+  </si>
+  <si>
+    <t>E:/Quality Management/published/Process Instruction.pdf</t>
+  </si>
+  <si>
+    <t>E:/Quality Management/published/Find This File Searching For Something That Rhymes With COOL.pdf</t>
+  </si>
+  <si>
+    <t>E:/Quality Management/published/Interactive dynamic DOCM.docm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,12 +234,6 @@
       <sz val="10"/>
       <name val="MetaNormal-Roman"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="MetaNormal-Roman"/>
     </font>
     <font>
       <u/>
@@ -258,9 +269,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -274,13 +285,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -295,7 +303,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -323,9 +331,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -363,7 +371,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -435,7 +443,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -592,22 +600,22 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="44.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.86328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="80.3984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="80.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="44.68359375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.15625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.41796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="80.41796875" style="2" customWidth="1"/>
     <col min="7" max="7" width="64" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="25" style="1" customWidth="1"/>
     <col min="10" max="10" width="24" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.41796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -616,788 +624,945 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="13.15">
+    <row r="2" spans="2:11">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="14.25">
+    <row r="3" spans="2:11" ht="14.4">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
+      <c r="D3" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="14.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="14.4">
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
+      <c r="D4" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="14.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="14.4">
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
+      <c r="D5" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="14.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="14.4">
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
+      <c r="D6" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="14.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="14.4">
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
+      <c r="D7" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="F7" s="6"/>
       <c r="G7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="14.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="14.4">
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
+      <c r="D8" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="F8" s="6"/>
       <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="14.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="14.4">
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
+      <c r="D9" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="14.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="14.4">
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="14.25">
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="2:11" ht="14.25">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="14.4">
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:11" ht="14.4">
+      <c r="D12" s="5"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="2:11" ht="14.25">
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="2:11" ht="14.4">
+      <c r="D13" s="5"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:11" ht="14.25">
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:11" ht="14.4">
+      <c r="D14" s="5"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="2:11" ht="14.25">
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:11" ht="14.4">
+      <c r="D15" s="5"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="2:11" ht="14.25">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:11" ht="14.4">
+      <c r="D16" s="5"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="5:6" ht="14.25">
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="4:6" ht="14.4">
+      <c r="D17" s="5"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="5:6" ht="14.25">
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="4:6" ht="14.4">
+      <c r="D18" s="5"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="5:6" ht="14.25">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="4:6" ht="14.4">
+      <c r="D19" s="5"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="5:6" ht="14.25">
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="4:6" ht="14.4">
+      <c r="D20" s="5"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="5:6" ht="14.25">
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="4:6" ht="14.4">
+      <c r="D21" s="5"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="5:6" ht="14.25">
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="4:6" ht="14.4">
+      <c r="D22" s="5"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="5:6" ht="14.25">
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="4:6" ht="14.4">
+      <c r="D23" s="5"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="5:6" ht="14.25">
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="4:6" ht="14.4">
+      <c r="D24" s="5"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="5:6" ht="14.25">
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="4:6" ht="14.4">
+      <c r="D25" s="5"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="5:6" ht="14.25">
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="4:6" ht="14.4">
+      <c r="D26" s="5"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="5:6" ht="14.25">
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="4:6" ht="14.4">
+      <c r="D27" s="5"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="5:6" ht="14.25">
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="4:6" ht="14.4">
+      <c r="D28" s="5"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="5:6" ht="14.25">
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="4:6" ht="14.4">
+      <c r="D29" s="5"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="5:6" ht="14.25">
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="4:6" ht="14.4">
+      <c r="D30" s="5"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="5:6" ht="14.25">
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="4:6" ht="14.4">
+      <c r="D31" s="5"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="5:6" ht="14.25">
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="4:6" ht="14.4">
+      <c r="D32" s="5"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="5:6" ht="14.25">
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="4:6" ht="14.4">
+      <c r="D33" s="5"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="5:6" ht="14.25">
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="4:6" ht="14.4">
+      <c r="D34" s="5"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="5:6" ht="14.25">
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="4:6" ht="14.4">
+      <c r="D35" s="5"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="5:6" ht="14.25">
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="4:6" ht="14.4">
+      <c r="D36" s="5"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="5:6" ht="14.25">
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="4:6" ht="14.4">
+      <c r="D37" s="5"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="5:6" ht="14.25">
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="4:6" ht="14.4">
+      <c r="D38" s="5"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="5:6" ht="14.25">
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="4:6" ht="14.4">
+      <c r="D39" s="5"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="5:6" ht="14.25">
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="4:6" ht="14.4">
+      <c r="D40" s="5"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="5:6" ht="14.25">
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="4:6" ht="14.4">
+      <c r="D41" s="5"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="5:6" ht="14.25">
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="4:6" ht="14.4">
+      <c r="D42" s="5"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="5:6" ht="14.25">
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="4:6" ht="14.4">
+      <c r="D43" s="5"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="5:6" ht="14.25">
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="4:6" ht="14.4">
+      <c r="D44" s="5"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="5:6" ht="14.25">
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="4:6" ht="14.4">
+      <c r="D45" s="5"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="5:6" ht="14.25">
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="4:6" ht="14.4">
+      <c r="D46" s="5"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="5:6" ht="14.25">
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="4:6" ht="14.4">
+      <c r="D47" s="5"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="5:6" ht="14.25">
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="4:6" ht="14.4">
+      <c r="D48" s="5"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="2:6" ht="14.25">
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="2:6" ht="14.4">
+      <c r="D49" s="5"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="2:6" ht="14.25">
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="2:6" ht="14.4">
+      <c r="D50" s="5"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="2:6" ht="14.25">
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="2:6" ht="14.4">
+      <c r="D51" s="5"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="2:6" ht="14.25">
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="2:6" ht="14.4">
+      <c r="D52" s="5"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="2:6" ht="14.25">
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="2:6" ht="14.4">
+      <c r="D53" s="5"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="2:6" ht="14.25">
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="2:6" ht="14.4">
+      <c r="D54" s="5"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="2:6" ht="14.25">
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="2:6" ht="14.4">
+      <c r="D55" s="5"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="2:6" ht="14.25">
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="2:6" ht="14.4">
+      <c r="D56" s="5"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="2:6" ht="14.25">
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="2:6" ht="14.4">
+      <c r="D57" s="5"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="2:6" ht="14.25">
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="2:6" ht="14.4">
+      <c r="D58" s="5"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="2:6" ht="14.25">
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="2:6" ht="14.4">
+      <c r="D59" s="5"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="2:6" ht="14.25">
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="2:6" ht="14.4">
+      <c r="D60" s="5"/>
       <c r="E60" s="6"/>
-      <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="2:6" ht="14.25">
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="2:6" ht="14.4">
+      <c r="D61" s="5"/>
       <c r="E61" s="6"/>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="2:6" ht="14.25">
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="2:6" ht="14.4">
+      <c r="D62" s="5"/>
       <c r="E62" s="6"/>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="2:6" ht="14.25">
-      <c r="B63" s="8"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="2:6" ht="14.4">
+      <c r="B63" s="7"/>
+      <c r="D63" s="5"/>
       <c r="E63" s="6"/>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="2:6" ht="14.25">
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="2:6" ht="14.4">
+      <c r="D64" s="5"/>
       <c r="E64" s="6"/>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="5:6" ht="14.25">
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="4:6" ht="14.4">
+      <c r="D65" s="5"/>
       <c r="E65" s="6"/>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="5:6" ht="14.25">
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="4:6" ht="14.4">
+      <c r="D66" s="5"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="5:6" ht="14.25">
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="4:6" ht="14.4">
+      <c r="D67" s="5"/>
       <c r="E67" s="6"/>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="5:6" ht="14.25">
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="4:6" ht="14.4">
+      <c r="D68" s="5"/>
       <c r="E68" s="6"/>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="5:6" ht="14.25">
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="4:6" ht="14.4">
+      <c r="D69" s="5"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="7"/>
-    </row>
-    <row r="70" spans="5:6" ht="14.25">
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="4:6" ht="14.4">
+      <c r="D70" s="5"/>
       <c r="E70" s="6"/>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="5:6" ht="14.25">
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="4:6" ht="14.4">
+      <c r="D71" s="5"/>
       <c r="E71" s="6"/>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="5:6" ht="14.25">
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="4:6" ht="14.4">
+      <c r="D72" s="5"/>
       <c r="E72" s="6"/>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="5:6" ht="14.25">
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="4:6" ht="14.4">
+      <c r="D73" s="5"/>
       <c r="E73" s="6"/>
-      <c r="F73" s="7"/>
-    </row>
-    <row r="74" spans="5:6" ht="14.25">
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="4:6" ht="14.4">
+      <c r="D74" s="5"/>
       <c r="E74" s="6"/>
-      <c r="F74" s="7"/>
-    </row>
-    <row r="75" spans="5:6" ht="14.25">
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="4:6" ht="14.4">
+      <c r="D75" s="5"/>
       <c r="E75" s="6"/>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="5:6" ht="14.25">
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="4:6" ht="14.4">
+      <c r="D76" s="5"/>
       <c r="E76" s="6"/>
-      <c r="F76" s="7"/>
-    </row>
-    <row r="77" spans="5:6" ht="14.25">
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="4:6" ht="14.4">
+      <c r="D77" s="5"/>
       <c r="E77" s="6"/>
-      <c r="F77" s="7"/>
-    </row>
-    <row r="78" spans="5:6" ht="14.25">
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="4:6" ht="14.4">
+      <c r="D78" s="5"/>
       <c r="E78" s="6"/>
-      <c r="F78" s="7"/>
-    </row>
-    <row r="79" spans="5:6" ht="14.25">
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="4:6" ht="14.4">
+      <c r="D79" s="5"/>
       <c r="E79" s="6"/>
-      <c r="F79" s="7"/>
-    </row>
-    <row r="80" spans="5:6" ht="14.25">
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="4:6" ht="14.4">
+      <c r="D80" s="5"/>
       <c r="E80" s="6"/>
-      <c r="F80" s="7"/>
-    </row>
-    <row r="81" spans="5:6" ht="14.25">
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="4:6" ht="14.4">
+      <c r="D81" s="5"/>
       <c r="E81" s="6"/>
-      <c r="F81" s="7"/>
-    </row>
-    <row r="82" spans="5:6" ht="14.25">
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="4:6" ht="14.4">
+      <c r="D82" s="5"/>
       <c r="E82" s="6"/>
-      <c r="F82" s="7"/>
-    </row>
-    <row r="83" spans="5:6" ht="14.25">
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="4:6" ht="14.4">
+      <c r="D83" s="5"/>
       <c r="E83" s="6"/>
-      <c r="F83" s="7"/>
-    </row>
-    <row r="84" spans="5:6" ht="14.25">
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="4:6" ht="14.4">
+      <c r="D84" s="5"/>
       <c r="E84" s="6"/>
-      <c r="F84" s="7"/>
-    </row>
-    <row r="85" spans="5:6" ht="14.25">
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="4:6" ht="14.4">
+      <c r="D85" s="5"/>
       <c r="E85" s="6"/>
-      <c r="F85" s="7"/>
-    </row>
-    <row r="86" spans="5:6" ht="14.25">
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="4:6" ht="14.4">
+      <c r="D86" s="5"/>
       <c r="E86" s="6"/>
-      <c r="F86" s="7"/>
-    </row>
-    <row r="87" spans="5:6" ht="14.25">
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="4:6" ht="14.4">
+      <c r="D87" s="5"/>
       <c r="E87" s="6"/>
-      <c r="F87" s="7"/>
-    </row>
-    <row r="88" spans="5:6" ht="14.25">
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="4:6" ht="14.4">
+      <c r="D88" s="5"/>
       <c r="E88" s="6"/>
-      <c r="F88" s="7"/>
-    </row>
-    <row r="89" spans="5:6" ht="14.25">
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="4:6" ht="14.4">
+      <c r="D89" s="5"/>
       <c r="E89" s="6"/>
-      <c r="F89" s="7"/>
-    </row>
-    <row r="90" spans="5:6" ht="14.25">
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="4:6" ht="14.4">
+      <c r="D90" s="5"/>
       <c r="E90" s="6"/>
-      <c r="F90" s="7"/>
-    </row>
-    <row r="91" spans="5:6" ht="14.25">
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="4:6" ht="14.4">
+      <c r="D91" s="5"/>
       <c r="E91" s="6"/>
-      <c r="F91" s="7"/>
-    </row>
-    <row r="92" spans="5:6" ht="14.25">
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="4:6" ht="14.4">
+      <c r="D92" s="5"/>
       <c r="E92" s="6"/>
-      <c r="F92" s="7"/>
-    </row>
-    <row r="93" spans="5:6" ht="14.25">
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="4:6" ht="14.4">
+      <c r="D93" s="5"/>
       <c r="E93" s="6"/>
-      <c r="F93" s="7"/>
-    </row>
-    <row r="94" spans="5:6" ht="14.25">
+      <c r="F93" s="6"/>
+    </row>
+    <row r="94" spans="4:6" ht="14.4">
+      <c r="D94" s="5"/>
       <c r="E94" s="6"/>
-      <c r="F94" s="7"/>
-    </row>
-    <row r="95" spans="5:6" ht="14.25">
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" spans="4:6" ht="14.4">
+      <c r="D95" s="5"/>
       <c r="E95" s="6"/>
-      <c r="F95" s="7"/>
-    </row>
-    <row r="96" spans="5:6" ht="14.25">
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" spans="4:6" ht="14.4">
+      <c r="D96" s="5"/>
       <c r="E96" s="6"/>
-      <c r="F96" s="7"/>
-    </row>
-    <row r="97" spans="5:6" ht="14.25">
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" spans="4:6" ht="14.4">
+      <c r="D97" s="5"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="7"/>
-    </row>
-    <row r="98" spans="5:6" ht="14.25">
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="4:6" ht="14.4">
+      <c r="D98" s="5"/>
       <c r="E98" s="6"/>
-      <c r="F98" s="7"/>
-    </row>
-    <row r="99" spans="5:6" ht="14.25">
+      <c r="F98" s="6"/>
+    </row>
+    <row r="99" spans="4:6" ht="14.4">
+      <c r="D99" s="5"/>
       <c r="E99" s="6"/>
-      <c r="F99" s="7"/>
-    </row>
-    <row r="100" spans="5:6" ht="14.25">
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" spans="4:6" ht="14.4">
+      <c r="D100" s="5"/>
       <c r="E100" s="6"/>
-      <c r="F100" s="7"/>
-    </row>
-    <row r="101" spans="5:6" ht="14.25">
+      <c r="F100" s="6"/>
+    </row>
+    <row r="101" spans="4:6" ht="14.4">
+      <c r="D101" s="5"/>
       <c r="E101" s="6"/>
-      <c r="F101" s="7"/>
-    </row>
-    <row r="102" spans="5:6" ht="14.25">
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" spans="4:6" ht="14.4">
+      <c r="D102" s="5"/>
       <c r="E102" s="6"/>
-      <c r="F102" s="7"/>
-    </row>
-    <row r="103" spans="5:6" ht="14.25">
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103" spans="4:6" ht="14.4">
+      <c r="D103" s="5"/>
       <c r="E103" s="6"/>
-      <c r="F103" s="7"/>
-    </row>
-    <row r="104" spans="5:6" ht="14.25">
+      <c r="F103" s="6"/>
+    </row>
+    <row r="104" spans="4:6" ht="14.4">
+      <c r="D104" s="5"/>
       <c r="E104" s="6"/>
-      <c r="F104" s="7"/>
-    </row>
-    <row r="105" spans="5:6" ht="14.25">
+      <c r="F104" s="6"/>
+    </row>
+    <row r="105" spans="4:6" ht="14.4">
+      <c r="D105" s="5"/>
       <c r="E105" s="6"/>
-      <c r="F105" s="7"/>
-    </row>
-    <row r="106" spans="5:6" ht="14.25">
+      <c r="F105" s="6"/>
+    </row>
+    <row r="106" spans="4:6" ht="14.4">
+      <c r="D106" s="5"/>
       <c r="E106" s="6"/>
-      <c r="F106" s="7"/>
-    </row>
-    <row r="107" spans="5:6" ht="14.25">
+      <c r="F106" s="6"/>
+    </row>
+    <row r="107" spans="4:6" ht="14.4">
+      <c r="D107" s="5"/>
       <c r="E107" s="6"/>
-      <c r="F107" s="7"/>
-    </row>
-    <row r="108" spans="5:6" ht="14.25">
+      <c r="F107" s="6"/>
+    </row>
+    <row r="108" spans="4:6" ht="14.4">
+      <c r="D108" s="5"/>
       <c r="E108" s="6"/>
-      <c r="F108" s="7"/>
-    </row>
-    <row r="109" spans="5:6" ht="14.25">
+      <c r="F108" s="6"/>
+    </row>
+    <row r="109" spans="4:6" ht="14.4">
+      <c r="D109" s="5"/>
       <c r="E109" s="6"/>
-      <c r="F109" s="7"/>
-    </row>
-    <row r="110" spans="5:6" ht="14.25">
+      <c r="F109" s="6"/>
+    </row>
+    <row r="110" spans="4:6" ht="14.4">
+      <c r="D110" s="5"/>
       <c r="E110" s="6"/>
-      <c r="F110" s="7"/>
-    </row>
-    <row r="111" spans="5:6" ht="14.25">
+      <c r="F110" s="6"/>
+    </row>
+    <row r="111" spans="4:6" ht="14.4">
+      <c r="D111" s="5"/>
       <c r="E111" s="6"/>
-      <c r="F111" s="7"/>
-    </row>
-    <row r="112" spans="5:6" ht="14.25">
+      <c r="F111" s="6"/>
+    </row>
+    <row r="112" spans="4:6" ht="14.4">
+      <c r="D112" s="5"/>
       <c r="E112" s="6"/>
-      <c r="F112" s="7"/>
-    </row>
-    <row r="113" spans="5:6" ht="14.25">
+      <c r="F112" s="6"/>
+    </row>
+    <row r="113" spans="4:6" ht="14.4">
+      <c r="D113" s="5"/>
       <c r="E113" s="6"/>
-      <c r="F113" s="7"/>
-    </row>
-    <row r="114" spans="5:6" ht="14.25">
+      <c r="F113" s="6"/>
+    </row>
+    <row r="114" spans="4:6" ht="14.4">
+      <c r="D114" s="5"/>
       <c r="E114" s="6"/>
-      <c r="F114" s="7"/>
-    </row>
-    <row r="115" spans="5:6" ht="14.25">
+      <c r="F114" s="6"/>
+    </row>
+    <row r="115" spans="4:6" ht="14.4">
+      <c r="D115" s="5"/>
       <c r="E115" s="6"/>
-      <c r="F115" s="7"/>
-    </row>
-    <row r="116" spans="5:6" ht="14.25">
+      <c r="F115" s="6"/>
+    </row>
+    <row r="116" spans="4:6" ht="14.4">
+      <c r="D116" s="5"/>
       <c r="E116" s="6"/>
-      <c r="F116" s="7"/>
-    </row>
-    <row r="117" spans="5:6" ht="14.25">
+      <c r="F116" s="6"/>
+    </row>
+    <row r="117" spans="4:6" ht="14.4">
+      <c r="D117" s="5"/>
       <c r="E117" s="6"/>
-      <c r="F117" s="7"/>
-    </row>
-    <row r="118" spans="5:6" ht="14.25">
+      <c r="F117" s="6"/>
+    </row>
+    <row r="118" spans="4:6" ht="14.4">
+      <c r="D118" s="5"/>
       <c r="E118" s="6"/>
-      <c r="F118" s="7"/>
-    </row>
-    <row r="119" spans="5:6" ht="14.25">
+      <c r="F118" s="6"/>
+    </row>
+    <row r="119" spans="4:6" ht="14.4">
+      <c r="D119" s="5"/>
       <c r="E119" s="6"/>
-      <c r="F119" s="7"/>
-    </row>
-    <row r="120" spans="5:6" ht="14.25">
+      <c r="F119" s="6"/>
+    </row>
+    <row r="120" spans="4:6" ht="14.4">
+      <c r="D120" s="5"/>
       <c r="E120" s="6"/>
-      <c r="F120" s="7"/>
-    </row>
-    <row r="121" spans="5:6" ht="14.25">
+      <c r="F120" s="6"/>
+    </row>
+    <row r="121" spans="4:6" ht="14.4">
+      <c r="D121" s="5"/>
       <c r="E121" s="6"/>
-      <c r="F121" s="7"/>
-    </row>
-    <row r="122" spans="5:6" ht="14.25">
+      <c r="F121" s="6"/>
+    </row>
+    <row r="122" spans="4:6" ht="14.4">
+      <c r="D122" s="5"/>
       <c r="E122" s="6"/>
-      <c r="F122" s="7"/>
-    </row>
-    <row r="123" spans="5:6" ht="14.25">
+      <c r="F122" s="6"/>
+    </row>
+    <row r="123" spans="4:6" ht="14.4">
+      <c r="D123" s="5"/>
       <c r="E123" s="6"/>
-      <c r="F123" s="7"/>
-    </row>
-    <row r="124" spans="5:6" ht="14.25">
+      <c r="F123" s="6"/>
+    </row>
+    <row r="124" spans="4:6" ht="14.4">
+      <c r="D124" s="5"/>
       <c r="E124" s="6"/>
-      <c r="F124" s="7"/>
-    </row>
-    <row r="125" spans="5:6" ht="14.25">
+      <c r="F124" s="6"/>
+    </row>
+    <row r="125" spans="4:6" ht="14.4">
+      <c r="D125" s="5"/>
       <c r="E125" s="6"/>
-      <c r="F125" s="7"/>
-    </row>
-    <row r="126" spans="5:6" ht="14.25">
+      <c r="F125" s="6"/>
+    </row>
+    <row r="126" spans="4:6" ht="14.4">
+      <c r="D126" s="5"/>
       <c r="E126" s="6"/>
-      <c r="F126" s="7"/>
-    </row>
-    <row r="127" spans="5:6" ht="14.25">
+      <c r="F126" s="6"/>
+    </row>
+    <row r="127" spans="4:6" ht="14.4">
+      <c r="D127" s="5"/>
       <c r="E127" s="6"/>
-      <c r="F127" s="7"/>
-    </row>
-    <row r="128" spans="5:6" ht="14.25">
+      <c r="F127" s="6"/>
+    </row>
+    <row r="128" spans="4:6" ht="14.4">
+      <c r="D128" s="5"/>
       <c r="E128" s="6"/>
-      <c r="F128" s="7"/>
-    </row>
-    <row r="129" spans="5:6" ht="14.25">
+      <c r="F128" s="6"/>
+    </row>
+    <row r="129" spans="4:6" ht="14.4">
+      <c r="D129" s="5"/>
       <c r="E129" s="6"/>
-      <c r="F129" s="7"/>
-    </row>
-    <row r="130" spans="5:6" ht="14.25">
+      <c r="F129" s="6"/>
+    </row>
+    <row r="130" spans="4:6" ht="14.4">
+      <c r="D130" s="5"/>
       <c r="E130" s="6"/>
-      <c r="F130" s="7"/>
-    </row>
-    <row r="131" spans="5:6" ht="14.25">
+      <c r="F130" s="6"/>
+    </row>
+    <row r="131" spans="4:6" ht="14.4">
+      <c r="D131" s="5"/>
       <c r="E131" s="6"/>
-      <c r="F131" s="7"/>
-    </row>
-    <row r="132" spans="5:6" ht="14.25">
+      <c r="F131" s="6"/>
+    </row>
+    <row r="132" spans="4:6" ht="14.4">
+      <c r="D132" s="5"/>
       <c r="E132" s="6"/>
-      <c r="F132" s="7"/>
-    </row>
-    <row r="133" spans="5:6" ht="14.25">
+      <c r="F132" s="6"/>
+    </row>
+    <row r="133" spans="4:6" ht="14.4">
+      <c r="D133" s="5"/>
       <c r="E133" s="6"/>
-      <c r="F133" s="7"/>
-    </row>
-    <row r="134" spans="5:6" ht="14.25">
+      <c r="F133" s="6"/>
+    </row>
+    <row r="134" spans="4:6" ht="14.4">
+      <c r="D134" s="5"/>
       <c r="E134" s="6"/>
-      <c r="F134" s="7"/>
-    </row>
-    <row r="135" spans="5:6" ht="14.25">
+      <c r="F134" s="6"/>
+    </row>
+    <row r="135" spans="4:6" ht="14.4">
+      <c r="D135" s="5"/>
       <c r="E135" s="6"/>
-      <c r="F135" s="7"/>
-    </row>
-    <row r="136" spans="5:6" ht="14.25">
+      <c r="F135" s="6"/>
+    </row>
+    <row r="136" spans="4:6" ht="14.4">
+      <c r="D136" s="5"/>
       <c r="E136" s="6"/>
-      <c r="F136" s="7"/>
-    </row>
-    <row r="137" spans="5:6" ht="14.25">
+      <c r="F136" s="6"/>
+    </row>
+    <row r="137" spans="4:6" ht="14.4">
+      <c r="D137" s="5"/>
       <c r="E137" s="6"/>
-      <c r="F137" s="7"/>
-    </row>
-    <row r="138" spans="5:6" ht="14.25">
+      <c r="F137" s="6"/>
+    </row>
+    <row r="138" spans="4:6" ht="14.4">
+      <c r="D138" s="5"/>
       <c r="E138" s="6"/>
-      <c r="F138" s="7"/>
-    </row>
-    <row r="139" spans="5:6" ht="14.25">
+      <c r="F138" s="6"/>
+    </row>
+    <row r="139" spans="4:6" ht="14.4">
+      <c r="D139" s="5"/>
       <c r="E139" s="6"/>
-      <c r="F139" s="7"/>
-    </row>
-    <row r="140" spans="5:6" ht="14.25">
+      <c r="F139" s="6"/>
+    </row>
+    <row r="140" spans="4:6" ht="14.4">
+      <c r="D140" s="5"/>
       <c r="E140" s="6"/>
-      <c r="F140" s="7"/>
-    </row>
-    <row r="141" spans="5:6" ht="14.25">
+      <c r="F140" s="6"/>
+    </row>
+    <row r="141" spans="4:6" ht="14.4">
+      <c r="D141" s="5"/>
       <c r="E141" s="6"/>
-      <c r="F141" s="7"/>
-    </row>
-    <row r="142" spans="5:6" ht="14.25">
+      <c r="F141" s="6"/>
+    </row>
+    <row r="142" spans="4:6" ht="14.4">
+      <c r="D142" s="5"/>
       <c r="E142" s="6"/>
-      <c r="F142" s="7"/>
-    </row>
-    <row r="143" spans="5:6" ht="14.25">
+      <c r="F142" s="6"/>
+    </row>
+    <row r="143" spans="4:6" ht="14.4">
+      <c r="D143" s="5"/>
       <c r="E143" s="6"/>
-      <c r="F143" s="7"/>
-    </row>
-    <row r="144" spans="5:6" ht="14.25">
+      <c r="F143" s="6"/>
+    </row>
+    <row r="144" spans="4:6" ht="14.4">
+      <c r="D144" s="5"/>
       <c r="E144" s="6"/>
-      <c r="F144" s="7"/>
-    </row>
-    <row r="145" spans="5:6" ht="14.25">
+      <c r="F144" s="6"/>
+    </row>
+    <row r="145" spans="4:6" ht="14.4">
+      <c r="D145" s="5"/>
       <c r="E145" s="6"/>
-      <c r="F145" s="7"/>
-    </row>
-    <row r="146" spans="5:6" ht="14.25">
+      <c r="F145" s="6"/>
+    </row>
+    <row r="146" spans="4:6" ht="14.4">
+      <c r="D146" s="5"/>
       <c r="E146" s="6"/>
-      <c r="F146" s="7"/>
-    </row>
-    <row r="147" spans="5:6" ht="14.25">
+      <c r="F146" s="6"/>
+    </row>
+    <row r="147" spans="4:6" ht="14.4">
+      <c r="D147" s="5"/>
       <c r="E147" s="6"/>
-      <c r="F147" s="7"/>
-    </row>
-    <row r="148" spans="5:6" ht="14.25">
+      <c r="F147" s="6"/>
+    </row>
+    <row r="148" spans="4:6" ht="14.4">
+      <c r="D148" s="5"/>
       <c r="E148" s="6"/>
-      <c r="F148" s="7"/>
-    </row>
-    <row r="149" spans="5:6" ht="14.25">
+      <c r="F148" s="6"/>
+    </row>
+    <row r="149" spans="4:6" ht="14.4">
+      <c r="D149" s="5"/>
       <c r="E149" s="6"/>
-      <c r="F149" s="7"/>
-    </row>
-    <row r="150" spans="5:6" ht="14.25">
+      <c r="F149" s="6"/>
+    </row>
+    <row r="150" spans="4:6" ht="14.4">
+      <c r="D150" s="5"/>
       <c r="E150" s="6"/>
-      <c r="F150" s="7"/>
-    </row>
-    <row r="151" spans="5:6" ht="14.25">
+      <c r="F150" s="6"/>
+    </row>
+    <row r="151" spans="4:6" ht="14.4">
+      <c r="D151" s="5"/>
       <c r="E151" s="6"/>
-      <c r="F151" s="7"/>
-    </row>
-    <row r="152" spans="5:6" ht="14.25">
+      <c r="F151" s="6"/>
+    </row>
+    <row r="152" spans="4:6" ht="14.4">
+      <c r="D152" s="5"/>
       <c r="E152" s="6"/>
-      <c r="F152" s="7"/>
-    </row>
-    <row r="153" spans="5:6" ht="14.25">
+      <c r="F152" s="6"/>
+    </row>
+    <row r="153" spans="4:6" ht="14.4">
+      <c r="D153" s="5"/>
       <c r="E153" s="6"/>
-      <c r="F153" s="7"/>
-    </row>
-    <row r="154" spans="5:6" ht="14.25">
+      <c r="F153" s="6"/>
+    </row>
+    <row r="154" spans="4:6" ht="14.4">
+      <c r="D154" s="5"/>
       <c r="E154" s="6"/>
-      <c r="F154" s="7"/>
-    </row>
-    <row r="155" spans="5:6" ht="14.25">
+      <c r="F154" s="6"/>
+    </row>
+    <row r="155" spans="4:6" ht="14.4">
+      <c r="D155" s="5"/>
       <c r="E155" s="6"/>
-      <c r="F155" s="7"/>
+      <c r="F155" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:K2"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:K732">
       <formula1>Norm</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="E7" r:id="rId5"/>
-    <hyperlink ref="E8" r:id="rId6"/>
-    <hyperlink ref="E9" r:id="rId7"/>
-    <hyperlink ref="E10" r:id="rId8"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId6"/>
+    <hyperlink ref="D9" r:id="rId7"/>
+    <hyperlink ref="D10" r:id="rId8"/>
+    <hyperlink ref="D11" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -1410,227 +1575,227 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="12.3"/>
   <cols>
-    <col min="1" max="1" width="84.59765625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="78.265625" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="11.3984375" style="11"/>
+    <col min="1" max="1" width="84.578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="78.26171875" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="11.41796875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A1" s="9"/>
-    </row>
-    <row r="2" spans="1:2" ht="13.15">
-      <c r="A2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="13.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="12"/>
+      <c r="A1" s="8"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>26</v>
+      <c r="A4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>27</v>
+      <c r="A6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="12"/>
+      <c r="A8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>29</v>
+      <c r="A9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" s="12"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="12"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="12"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="12"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="12"/>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" s="12"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="12"/>
+      <c r="B17" s="11"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="12"/>
+      <c r="B18" s="11"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="12"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="12"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="12"/>
+      <c r="B22" s="11"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="12"/>
+      <c r="B23" s="11"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="12"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="12"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="12"/>
+      <c r="B28" s="11"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="12"/>
+      <c r="B29" s="11"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="12"/>
+      <c r="B30" s="11"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="12"/>
+      <c r="B31" s="11"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="12"/>
+      <c r="B32" s="11"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="B33" s="12"/>
+      <c r="B33" s="11"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="B34" s="12"/>
+      <c r="B34" s="11"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="B35" s="12"/>
+      <c r="B35" s="11"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="B36" s="12"/>
+      <c r="B36" s="11"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="B37" s="12"/>
+      <c r="B37" s="11"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="11"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="B39" s="12"/>
+      <c r="B39" s="11"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="B40" s="12"/>
+      <c r="B40" s="11"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="B41" s="12"/>
+      <c r="B41" s="11"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="B42" s="12"/>
+      <c r="B42" s="11"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="B43" s="12"/>
+      <c r="B43" s="11"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="B44" s="12"/>
+      <c r="B44" s="11"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="B45" s="12"/>
+      <c r="B45" s="11"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="B46" s="12"/>
+      <c r="B46" s="11"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="B47" s="12"/>
+      <c r="B47" s="11"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="B48" s="12"/>
+      <c r="B48" s="11"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="12"/>
+      <c r="B49" s="11"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="12"/>
+      <c r="B50" s="11"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="12"/>
+      <c r="B51" s="11"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="12"/>
+      <c r="B52" s="11"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="12"/>
+      <c r="B53" s="11"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="12"/>
+      <c r="B54" s="11"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="12"/>
+      <c r="B55" s="11"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="12"/>
+      <c r="B56" s="11"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="12"/>
+      <c r="B57" s="11"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="12"/>
+      <c r="B58" s="11"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="12"/>
+      <c r="B59" s="11"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="12"/>
+      <c r="B60" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B400">
@@ -1655,122 +1820,122 @@
       <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="38.86328125" customWidth="1"/>
-    <col min="3" max="3" width="24.59765625" customWidth="1"/>
+    <col min="2" max="2" width="38.83984375" customWidth="1"/>
+    <col min="3" max="3" width="24.578125" customWidth="1"/>
     <col min="4" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9"/>
+      <c r="A1" s="8"/>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>19</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>19</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>21</v>
+        <v>45</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1796,4 +1961,16 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId13"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/published/list of documents.xlsx
+++ b/published/list of documents.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22998" windowHeight="4200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="DocumentList" sheetId="2" r:id="rId1"/>
@@ -172,31 +172,31 @@
     <t>Package II Category I 2</t>
   </si>
   <si>
-    <t>E:/Quality Management/published/Another Process Instruction .pdf</t>
-  </si>
-  <si>
-    <t>E:/Quality Management/published/Another Sample Form.pdf</t>
-  </si>
-  <si>
-    <t>E:/Quality Management/published/Attendance List.pdf</t>
-  </si>
-  <si>
-    <t>E:/Quality Management/published/Having Several Dozen Documents Making This System Plausible.pdf</t>
-  </si>
-  <si>
-    <t>E:/Quality Management/published/Sample Form.pdf</t>
-  </si>
-  <si>
-    <t>E:/Quality Management/published/Protocol.pdf</t>
-  </si>
-  <si>
-    <t>E:/Quality Management/published/Process Instruction.pdf</t>
-  </si>
-  <si>
-    <t>E:/Quality Management/published/Find This File Searching For Something That Rhymes With COOL.pdf</t>
-  </si>
-  <si>
-    <t>E:/Quality Management/published/Interactive dynamic DOCM.docm</t>
+    <t>D:/Quality Management/published/Another Process Instruction .pdf</t>
+  </si>
+  <si>
+    <t>D:/Quality Management/published/Another Sample Form.pdf</t>
+  </si>
+  <si>
+    <t>D:/Quality Management/published/Attendance List.pdf</t>
+  </si>
+  <si>
+    <t>D:/Quality Management/published/Having Several Dozen Documents Making This System Plausible.pdf</t>
+  </si>
+  <si>
+    <t>D:/Quality Management/published/Sample Form.pdf</t>
+  </si>
+  <si>
+    <t>D:/Quality Management/published/Protocol.pdf</t>
+  </si>
+  <si>
+    <t>D:/Quality Management/published/Process Instruction.pdf</t>
+  </si>
+  <si>
+    <t>D:/Quality Management/published/Find This File Searching For Something That Rhymes With COOL.pdf</t>
+  </si>
+  <si>
+    <t>D:/Quality Management/published/Interactive dynamic DOCM.docm</t>
   </si>
 </sst>
 </file>
